--- a/UmstellungGetterSetter.xlsx
+++ b/UmstellungGetterSetter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="13" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
   <si>
     <t>dictAlias</t>
   </si>
@@ -185,10 +185,22 @@
     <t>x</t>
   </si>
   <si>
-    <t>PX_PlottableVarDispElement</t>
-  </si>
-  <si>
     <t>bVisible?</t>
+  </si>
+  <si>
+    <t>Virtuelle Attribute</t>
+  </si>
+  <si>
+    <t>bSignalLoaded</t>
+  </si>
+  <si>
+    <t>signals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PX_Signals Z.148]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PX_Signals Z.189]</t>
   </si>
 </sst>
 </file>
@@ -296,7 +308,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +516,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +661,7 @@
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
@@ -656,6 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20 % - Akzent1" xfId="18" builtinId="30" hidden="1"/>
@@ -2071,289 +2090,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.25" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.25" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
+      <c r="C1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C4">
+        <f>SUM(E7)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <f>SUM(C4:C18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>53</v>
@@ -2361,7 +2457,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>53</v>
@@ -2369,7 +2465,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>53</v>
@@ -2377,7 +2473,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>53</v>
@@ -2385,7 +2481,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>53</v>
@@ -2393,7 +2489,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>53</v>
@@ -2401,7 +2497,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>53</v>
@@ -2409,7 +2505,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>53</v>
@@ -2417,7 +2513,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>53</v>
@@ -2425,7 +2521,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>53</v>
@@ -2433,7 +2529,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>53</v>
@@ -2441,57 +2537,98 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="B49" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B50" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B52" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B54" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>55</v>
+      <c r="B55" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
